--- a/biology/Botanique/Isonandra_stocksii/Isonandra_stocksii.xlsx
+++ b/biology/Botanique/Isonandra_stocksii/Isonandra_stocksii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isonandra stocksii est une espèce de plantes à fleurs de la famille des Sapotaceae. C'est un petit arbre originaire de Inde. 
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dispersée dans les restes de forêts des Ghats occidentaux. De nombreux sites ont été détruits depuis la fin du XXe siècle. Les derniers sites ont été signalés vers Bangare dans les Upper Bisle Ghat et les Bababudan Hills.
 </t>
